--- a/res5.xlsx
+++ b/res5.xlsx
@@ -497,7 +497,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11860128</t>
+          <t>1180128</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -617,7 +617,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1180456</t>
+          <t>1180456-</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
